--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1907877.447992636</v>
+        <v>-1910460.480062364</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>191.7041177524626</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.37618332860191</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851126</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>7.065010680410647</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>78.961229153611</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>363.0740900980363</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969292</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.92502798775155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>129.9950902990167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>91.92066168120682</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>67.56719349698646</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>37.2782206764597</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819434</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085811395</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>277.5227458350253</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>7.602497644399286</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716356</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,13 +2138,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757855</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>117.6579322793583</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487366</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149757</v>
       </c>
       <c r="C28" t="n">
-        <v>158.453354531666</v>
+        <v>158.4533545316663</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>44.76793778822528</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3497179313915</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.730671725307</v>
+        <v>156.7306717253073</v>
       </c>
       <c r="H28" t="n">
-        <v>131.501246279262</v>
+        <v>131.5012462792623</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160365</v>
+        <v>72.47236975160395</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014316011</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>172.232819434683</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>208.6119837603267</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222822</v>
+        <v>277.3910078222826</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>243.3441767568664</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696291</v>
+        <v>277.7295317696294</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220753</v>
+        <v>216.9161888220756</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851332</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1617.939223126804</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126804</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126804</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389519</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3021.674630153981</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2768.144153427817</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2768.144153427817</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2768.144153427817</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>2394.678395166737</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>2004.539063190925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>936.5735814686082</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080127</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986301</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.7841389438289</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C4" t="n">
-        <v>631.7841389438289</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D4" t="n">
-        <v>631.7841389438289</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596506</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068858</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596447</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181853</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181853</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181853</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181853</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438289</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438289</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438289</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="X4" t="n">
-        <v>631.7841389438289</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.7841389438289</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U7" t="n">
-        <v>631.784138943829</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V7" t="n">
-        <v>631.784138943829</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W7" t="n">
-        <v>631.784138943829</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>631.784138943829</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.513093752762</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>909.9276735868953</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>498.9417687972877</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2884.252265792696</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.112933816884</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.8974549201681</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C10" t="n">
-        <v>692.8974549201681</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>692.8974549201681</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>793.4017802156526</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>793.4017802156526</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>793.4017802156526</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>538.7172920097657</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>538.7172920097657</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201681</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201681</v>
+        <v>310.7277411117484</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400651</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400651</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400651</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400651</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713841</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,19 +5288,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400716</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2372.238089282765</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121646</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121646</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121646</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2261.070983590887</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.709803752139</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171616</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6239,19 +6239,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.6018753906285</v>
+        <v>663.4384611046032</v>
       </c>
       <c r="C28" t="n">
-        <v>561.5479819242992</v>
+        <v>503.3845676382737</v>
       </c>
       <c r="D28" t="n">
-        <v>561.5479819242992</v>
+        <v>458.1644284582482</v>
       </c>
       <c r="E28" t="n">
-        <v>561.5479819242992</v>
+        <v>458.1644284582482</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582472</v>
+        <v>458.1644284582482</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347048</v>
+        <v>299.8506186347054</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384806</v>
+        <v>167.0210769384809</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795879</v>
+        <v>182.7582133795878</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064188</v>
+        <v>453.1530078064183</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836511</v>
+        <v>852.2571338836503</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515978</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687554</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162405</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790597</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790599</v>
+        <v>2458.443924504576</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.634793907081</v>
+        <v>2284.471379621058</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.915618391599</v>
+        <v>2073.752204105577</v>
       </c>
       <c r="U28" t="n">
-        <v>1851.722681197375</v>
+        <v>1793.559266911352</v>
       </c>
       <c r="V28" t="n">
-        <v>1605.920482453066</v>
+        <v>1547.757068167042</v>
       </c>
       <c r="W28" t="n">
-        <v>1325.385601877683</v>
+        <v>1267.222187591659</v>
       </c>
       <c r="X28" t="n">
-        <v>1106.278340441243</v>
+        <v>1048.114926155219</v>
       </c>
       <c r="Y28" t="n">
-        <v>894.3680507592906</v>
+        <v>836.2046364732656</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7014,13 +7014,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150025</v>
@@ -7081,10 +7081,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,13 +7570,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>12.21385238715757</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.8617553274516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.3689519661585</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22759,7 +22759,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>227.9299826817492</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648173</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>8.66172855421371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.863592160092</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.4237883572453</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405075</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>114.173543684066</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>63.36835372228624</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512505</v>
+        <v>95.0540686630255</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796073</v>
+        <v>137.6404960796076</v>
       </c>
       <c r="F28" t="n">
-        <v>34.27786352457785</v>
+        <v>136.6275814559697</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.5817801431598</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1325641.935691543</v>
+        <v>1325641.935691544</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1325641.935691543</v>
+        <v>1325641.935691544</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1333818.023522999</v>
+        <v>1333818.023522998</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82260.24434218735</v>
+        <v>82260.2443421873</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,7 +26323,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
@@ -26347,10 +26347,10 @@
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="O2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508468</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006227</v>
+        <v>12392.9447400625</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569496</v>
+        <v>7034.77325356926</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006226</v>
+        <v>12392.94474006248</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944076</v>
+        <v>17720.18476944066</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="L4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="O4" t="n">
         <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355003.088935805</v>
+        <v>-1355410.488473621</v>
       </c>
       <c r="C6" t="n">
-        <v>-98900.46343241038</v>
+        <v>-98900.46343241046</v>
       </c>
       <c r="D6" t="n">
-        <v>-98900.46343241041</v>
+        <v>-98900.46343241046</v>
       </c>
       <c r="E6" t="n">
-        <v>-340468.3627118784</v>
+        <v>-340503.1006373148</v>
       </c>
       <c r="F6" t="n">
-        <v>-15055.9009045237</v>
+        <v>-15090.63882995938</v>
       </c>
       <c r="G6" t="n">
-        <v>-15055.9009045237</v>
+        <v>-15090.63882995935</v>
       </c>
       <c r="H6" t="n">
-        <v>-15055.90090452372</v>
+        <v>-15090.6388299594</v>
       </c>
       <c r="I6" t="n">
-        <v>-15055.90090452372</v>
+        <v>-15090.6388299594</v>
       </c>
       <c r="J6" t="n">
-        <v>-242625.6933905732</v>
+        <v>-242647.8527193448</v>
       </c>
       <c r="K6" t="n">
-        <v>-35744.39466590305</v>
+        <v>-35744.39466590328</v>
       </c>
       <c r="L6" t="n">
-        <v>-23351.44992584079</v>
+        <v>-23351.44992584077</v>
       </c>
       <c r="M6" t="n">
-        <v>-108406.4778613525</v>
+        <v>-108406.4778613527</v>
       </c>
       <c r="N6" t="n">
-        <v>-23351.4499258408</v>
+        <v>-23351.44992584077</v>
       </c>
       <c r="O6" t="n">
-        <v>-30386.22317941027</v>
+        <v>-30386.22317941005</v>
       </c>
       <c r="P6" t="n">
-        <v>-35744.39466590303</v>
+        <v>-35744.39466590325</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>24.28464749203974</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961827</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507783</v>
+        <v>15.49118092507813</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.79346656696187</v>
+        <v>8.793466566961575</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507783</v>
+        <v>15.49118092507811</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961827</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507783</v>
+        <v>15.49118092507813</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>286.3116626173966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>6.657010580432768</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>108.3081818887566</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.6596253643432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>235.2778014719909</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>319.0010639722466</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>78.86676914958271</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>152.4908046549822</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.472558714866375e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.843005748014548e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.829530708083867e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.093170329928398e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.996709700666025e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28858,13 +28858,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961884</v>
+        <v>8.793466566961579</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302386</v>
+        <v>522.1224556861822</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>516.654215558583</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579416</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36522,10 +36522,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991524</v>
+        <v>89.83994982991494</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765968</v>
+        <v>273.1260549765965</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860933</v>
+        <v>403.135480886093</v>
       </c>
       <c r="M28" t="n">
-        <v>435.065893568007</v>
+        <v>435.0658935680067</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.419599556869</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730073</v>
+        <v>382.055366273007</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735869</v>
+        <v>304.4252398735865</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668602</v>
+        <v>129.1957238668599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37470,10 +37470,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
